--- a/biology/Zoologie/Arrhyton_supernum/Arrhyton_supernum.xlsx
+++ b/biology/Zoologie/Arrhyton_supernum/Arrhyton_supernum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arrhyton supernum est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arrhyton supernum est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province de Guantánamo à Cuba[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province de Guantánamo à Cuba.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans leur description[2] les auteurs indiquent que cette espèce mesure en moyenne 255 mm dont 171 mm pour la queue et pèse environ 9,5 g. Son dos est pratiquement noir et sa face ventrale gris verdâtre légèrement tacheté de brun. Les juvéniles ont le dos brun foncé avec des rayures noires ou brun très foncé.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans leur description les auteurs indiquent que cette espèce mesure en moyenne 255 mm dont 171 mm pour la queue et pèse environ 9,5 g. Son dos est pratiquement noir et sa face ventrale gris verdâtre légèrement tacheté de brun. Les juvéniles ont le dos brun foncé avec des rayures noires ou brun très foncé.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, du latin supernus, « céleste », lui a été donné à sa coloration évoquant le noir céleste[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, du latin supernus, « céleste », lui a été donné à sa coloration évoquant le noir céleste.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hedges &amp; Garrido, 1992 : Cuban snakes of the genus Arrhyton: two new species and a reconsideration of A. redimitum Cope. Herpetologica, vol. 48, no 2, p. 168-177 (texte intégral).</t>
         </is>
